--- a/Database.xlsx
+++ b/Database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.998255</v>
+        <v>0.51618</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.083938</v>
+        <v>2.275917</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.145818</v>
+        <v>3.336047</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -531,6 +531,186 @@
       </c>
       <c r="F5" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.39594</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.461637</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.525649</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7.595842</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8.660259</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9.72475</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10.786425</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.59999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.848585</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23.59999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24.49999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.898603</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C14" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.23999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.31999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25.39999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,242 +475,482 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.51618</v>
+        <v>0.665802</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>20.03</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>20.06</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>20.09</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>20.12</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.275917</v>
+        <v>1.726224</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>20.06</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>20.12</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>20.18</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>20.24</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.336047</v>
+        <v>2.79281</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>20.09</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>20.18</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>20.27</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>20.36</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.39594</v>
+        <v>3.842132</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>20.12</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>20.23999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>20.36</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>20.48</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>20.59999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.461637</v>
+        <v>4.906247</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>20.15000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>20.45</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>20.74999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.525649</v>
+        <v>5.95936</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>20.18000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>20.35999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>20.54</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>20.72000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>20.89999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.595842</v>
+        <v>7.023212</v>
       </c>
       <c r="B9" t="n">
-        <v>20.18</v>
+        <v>20.21000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>20.36</v>
+        <v>20.41999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>20.54</v>
+        <v>20.63</v>
       </c>
       <c r="E9" t="n">
-        <v>20.72</v>
+        <v>20.84000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>20.9</v>
+        <v>21.04999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.660259</v>
+        <v>8.086600000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>20.36</v>
+        <v>20.24000000000001</v>
       </c>
       <c r="C10" t="n">
+        <v>20.47999999999999</v>
+      </c>
+      <c r="D10" t="n">
         <v>20.72</v>
       </c>
-      <c r="D10" t="n">
-        <v>21.08</v>
-      </c>
       <c r="E10" t="n">
-        <v>21.44</v>
+        <v>20.96000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>21.8</v>
+        <v>21.19999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.72475</v>
+        <v>9.153102000000001</v>
       </c>
       <c r="B11" t="n">
-        <v>20.54</v>
+        <v>20.27000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>21.08</v>
+        <v>20.53999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>21.62</v>
+        <v>20.81</v>
       </c>
       <c r="E11" t="n">
-        <v>22.16</v>
+        <v>21.08000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>22.7</v>
+        <v>21.34999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.786425</v>
+        <v>10.206493</v>
       </c>
       <c r="B12" t="n">
-        <v>20.72</v>
+        <v>20.30000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>21.44</v>
+        <v>20.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>22.16</v>
+        <v>20.9</v>
       </c>
       <c r="E12" t="n">
-        <v>22.88</v>
+        <v>21.20000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>23.59999999999999</v>
+        <v>21.49999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.848585</v>
+        <v>11.261276</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9</v>
+        <v>20.33000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8</v>
+        <v>20.65999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>22.7</v>
+        <v>20.99</v>
       </c>
       <c r="E13" t="n">
-        <v>23.59999999999999</v>
+        <v>21.32000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>24.49999999999999</v>
+        <v>21.64999999999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.898603</v>
+        <v>12.324381</v>
       </c>
       <c r="B14" t="n">
+        <v>20.36000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.71999999999998</v>
+      </c>
+      <c r="D14" t="n">
         <v>21.08</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
+        <v>21.44000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21.79999999999998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13.3899</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20.39000000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.77999999999998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21.56000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.94999999999998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14.454407</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.42000000000002</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.83999999999998</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21.68000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.09999999999998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.515998</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20.45000000000002</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.89999999999998</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21.80000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22.24999999999998</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16.576688</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20.48000000000002</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.95999999999998</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21.92000000000002</v>
+      </c>
+      <c r="F18" t="n">
+        <v>22.39999999999998</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17.653069</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20.51000000000002</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.01999999999998</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22.04000000000002</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22.54999999999998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.714724</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20.54000000000002</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21.07999999999998</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22.16000000000002</v>
+      </c>
+      <c r="F20" t="n">
+        <v>22.69999999999997</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19.766511</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20.57000000000002</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.13999999999998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.28000000000002</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22.84999999999997</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20.887562</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20.60000000000002</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21.19999999999997</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22.40000000000002</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22.99999999999997</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21.954526</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20.63000000000002</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.25999999999997</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22.52000000000002</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23.14999999999997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.022062</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20.66000000000003</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21.31999999999997</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.64000000000002</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.29999999999997</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.166888</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20.69000000000003</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21.37999999999997</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.76000000000002</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23.44999999999997</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.232778</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20.72000000000003</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.43999999999997</v>
+      </c>
+      <c r="D26" t="n">
         <v>22.16</v>
       </c>
-      <c r="D14" t="n">
-        <v>23.23999999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24.31999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25.39999999999999</v>
+      <c r="E26" t="n">
+        <v>22.88000000000002</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23.59999999999997</v>
       </c>
     </row>
   </sheetData>
